--- a/TheEngine/Regen Solver/enginefiles/solverdatageometry.xlsx
+++ b/TheEngine/Regen Solver/enginefiles/solverdatageometry.xlsx
@@ -420,13 +420,13 @@
         <v>0.03112434574304199</v>
       </c>
       <c r="D2">
-        <v>0.005565650964579227</v>
+        <v>0.005150225991302586</v>
       </c>
       <c r="E2">
         <v>0.009185997400259802</v>
       </c>
       <c r="F2">
-        <v>0.005454591059024392</v>
+        <v>0.004889619209503845</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,13 +440,13 @@
         <v>0.03029842497054849</v>
       </c>
       <c r="D3">
-        <v>0.005057143982657782</v>
+        <v>0.005082084374084406</v>
       </c>
       <c r="E3">
         <v>0.008861659071345705</v>
       </c>
       <c r="F3">
-        <v>0.00486901296120758</v>
+        <v>0.004766072315499016</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,13 +460,13 @@
         <v>0.029472504198055</v>
       </c>
       <c r="D4">
-        <v>0.004594235965509072</v>
+        <v>0.004991567043722514</v>
       </c>
       <c r="E4">
         <v>0.00853732074243161</v>
       </c>
       <c r="F4">
-        <v>0.004338854288853006</v>
+        <v>0.004617598523249564</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,13 +480,13 @@
         <v>0.02864658342556152</v>
       </c>
       <c r="D5">
-        <v>0.004172384655007708</v>
+        <v>0.004878959002764082</v>
       </c>
       <c r="E5">
         <v>0.008212982413517519</v>
       </c>
       <c r="F5">
-        <v>0.003858858283718739</v>
+        <v>0.004445826539184793</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,13 +500,13 @@
         <v>0.02782066265306801</v>
       </c>
       <c r="D6">
-        <v>0.003787177639467792</v>
+        <v>0.004744654626704549</v>
       </c>
       <c r="E6">
         <v>0.007888644084603418</v>
       </c>
       <c r="F6">
-        <v>0.003424328670984899</v>
+        <v>0.004252698601489258</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,13 +520,13 @@
         <v>0.02699474188057452</v>
       </c>
       <c r="D7">
-        <v>0.003434731041445112</v>
+        <v>0.00458935162565802</v>
       </c>
       <c r="E7">
         <v>0.007564305755689323</v>
       </c>
       <c r="F7">
-        <v>0.003031053208107388</v>
+        <v>0.004040437763912341</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,13 +540,13 @@
         <v>0.02616882110808103</v>
       </c>
       <c r="D8">
-        <v>0.003111596358493659</v>
+        <v>0.004414021882111358</v>
       </c>
       <c r="E8">
         <v>0.007239967426775229</v>
       </c>
       <c r="F8">
-        <v>0.002675237058909835</v>
+        <v>0.003811500253523136</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,13 +560,13 @@
         <v>0.02534290033558753</v>
       </c>
       <c r="D9">
-        <v>0.002814675052937939</v>
+        <v>0.004219855930684975</v>
       </c>
       <c r="E9">
         <v>0.006915629097861133</v>
       </c>
       <c r="F9">
-        <v>0.002353443141982423</v>
+        <v>0.003568511051010036</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,13 +580,13 @@
         <v>0.02451697956309404</v>
       </c>
       <c r="D10">
-        <v>0.002541134639348475</v>
+        <v>0.004008172231957837</v>
       </c>
       <c r="E10">
         <v>0.006591290768947037</v>
       </c>
       <c r="F10">
-        <v>0.002062536131775195</v>
+        <v>0.003314179163871476</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,13 +600,13 @@
         <v>0.02369105879060053</v>
       </c>
       <c r="D11">
-        <v>0.00228831603480864</v>
+        <v>0.003780273561572748</v>
       </c>
       <c r="E11">
         <v>0.006266952440032936</v>
       </c>
       <c r="F11">
-        <v>0.001799625134479897</v>
+        <v>0.003051184505410432</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,13 +620,13 @@
         <v>0.02286513801810705</v>
       </c>
       <c r="D12">
-        <v>0.002053613004249776</v>
+        <v>0.003537211056516205</v>
       </c>
       <c r="E12">
         <v>0.005942614111118845</v>
       </c>
       <c r="F12">
-        <v>0.001561995621239777</v>
+        <v>0.002782016241311469</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,13 +640,13 @@
         <v>0.02203921724561356</v>
       </c>
       <c r="D13">
-        <v>0.001834280090436213</v>
+        <v>0.003279356182438713</v>
       </c>
       <c r="E13">
         <v>0.005618275782204749</v>
       </c>
       <c r="F13">
-        <v>0.001347008483073192</v>
+        <v>0.00250870838128259</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -660,13 +660,13 @@
         <v>0.02121329647312005</v>
       </c>
       <c r="D14">
-        <v>0.001627047502569853</v>
+        <v>0.003005486380406337</v>
       </c>
       <c r="E14">
         <v>0.005293937453290648</v>
       </c>
       <c r="F14">
-        <v>0.001151901911954504</v>
+        <v>0.002232306255318037</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -680,13 +680,13 @@
         <v>0.02038737570062656</v>
       </c>
       <c r="D15">
-        <v>0.001427100329280454</v>
+        <v>0.002710282523922772</v>
       </c>
       <c r="E15">
         <v>0.004969599124376551</v>
       </c>
       <c r="F15">
-        <v>0.0009732518096418261</v>
+        <v>0.001951423350163182</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -700,13 +700,13 @@
         <v>0.01956145492813306</v>
       </c>
       <c r="D16">
-        <v>0.001223848157442328</v>
+        <v>0.002373765043902406</v>
       </c>
       <c r="E16">
         <v>0.004645260795462457</v>
       </c>
       <c r="F16">
-        <v>0.0008046116947123709</v>
+        <v>0.001656029482811165</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -720,13 +720,13 @@
         <v>0.01911027116091851</v>
       </c>
       <c r="D17">
-        <v>0.0008871695166148265</v>
+        <v>0.001662339609194077</v>
       </c>
       <c r="E17">
         <v>0.004468081344399932</v>
       </c>
       <c r="F17">
-        <v>0.0005843209908022175</v>
+        <v>0.001174978530569183</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -740,13 +740,13 @@
         <v>0.02088988309406883</v>
       </c>
       <c r="D18">
-        <v>0.0007938931374026335</v>
+        <v>0.001460978596209525</v>
       </c>
       <c r="E18">
         <v>0.005166933316328154</v>
       </c>
       <c r="F18">
-        <v>0.0006204035028902214</v>
+        <v>0.001206409092976211</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -760,13 +760,13 @@
         <v>0.02266949502721918</v>
       </c>
       <c r="D19">
-        <v>0.0007924114716662376</v>
+        <v>0.001426328783665248</v>
       </c>
       <c r="E19">
         <v>0.005865785288256387</v>
       </c>
       <c r="F19">
-        <v>0.0006950640136342677</v>
+        <v>0.001325957687250003</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -780,13 +780,13 @@
         <v>0.02444910696036953</v>
       </c>
       <c r="D20">
-        <v>0.0008143243978610638</v>
+        <v>0.001428074571813216</v>
       </c>
       <c r="E20">
         <v>0.006564637260184621</v>
       </c>
       <c r="F20">
-        <v>0.0007824552404017434</v>
+        <v>0.001469063650235908</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -800,13 +800,13 @@
         <v>0.02622871889351988</v>
       </c>
       <c r="D21">
-        <v>0.0008440631373143284</v>
+        <v>0.001443089656994752</v>
       </c>
       <c r="E21">
         <v>0.007263489232112854</v>
       </c>
       <c r="F21">
-        <v>0.0008786927366491308</v>
+        <v>0.001625869071621931</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -820,13 +820,13 @@
         <v>0.0280083308266702</v>
       </c>
       <c r="D22">
-        <v>0.0008770584150294723</v>
+        <v>0.001464034184377028</v>
       </c>
       <c r="E22">
         <v>0.007962341204041077</v>
       </c>
       <c r="F22">
-        <v>0.0009823798133846184</v>
+        <v>0.001792655008752646</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,13 +840,13 @@
         <v>0.02978794275982054</v>
       </c>
       <c r="D23">
-        <v>0.0009117987632374035</v>
+        <v>0.001487680916718522</v>
       </c>
       <c r="E23">
         <v>0.008661193175969303</v>
       </c>
       <c r="F23">
-        <v>0.001092841279055025</v>
+        <v>0.001967479957400649</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -860,13 +860,13 @@
         <v>0.03156755469297089</v>
       </c>
       <c r="D24">
-        <v>0.0009476526349606955</v>
+        <v>0.001512337740640048</v>
       </c>
       <c r="E24">
         <v>0.009360045147897535</v>
       </c>
       <c r="F24">
-        <v>0.001209689858688494</v>
+        <v>0.002149114661449114</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -880,13 +880,13 @@
         <v>0.03334716662612121</v>
       </c>
       <c r="D25">
-        <v>0.0009842864842473352</v>
+        <v>0.001537022325862672</v>
       </c>
       <c r="E25">
         <v>0.01005889711982576</v>
       </c>
       <c r="F25">
-        <v>0.001332676285182604</v>
+        <v>0.002336675025689555</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -900,13 +900,13 @@
         <v>0.03512677855927156</v>
       </c>
       <c r="D26">
-        <v>0.001021497185475097</v>
+        <v>0.001561125936190083</v>
       </c>
       <c r="E26">
         <v>0.01075774909175399</v>
       </c>
       <c r="F26">
-        <v>0.001461626159102144</v>
+        <v>0.002529467770282997</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -920,13 +920,13 @@
         <v>0.03690639049242189</v>
       </c>
       <c r="D27">
-        <v>0.001059150895445119</v>
+        <v>0.001584254547500019</v>
       </c>
       <c r="E27">
         <v>0.01145660106368222</v>
       </c>
       <c r="F27">
-        <v>0.001596409566505965</v>
+        <v>0.002726916176392131</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -940,13 +940,13 @@
         <v>0.03868600242557224</v>
       </c>
       <c r="D28">
-        <v>0.00109715492488907</v>
+        <v>0.001606145761131376</v>
       </c>
       <c r="E28">
         <v>0.01215545303561045</v>
       </c>
       <c r="F28">
-        <v>0.001736924958617161</v>
+        <v>0.002928520627467398</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -960,13 +960,13 @@
         <v>0.04046561435872258</v>
       </c>
       <c r="D29">
-        <v>0.001135442794613163</v>
+        <v>0.001626621969903978</v>
       </c>
       <c r="E29">
         <v>0.01285430500753868</v>
       </c>
       <c r="F29">
-        <v>0.001883089926146102</v>
+        <v>0.003133835948783437</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -980,13 +980,13 @@
         <v>0.04224522629187291</v>
       </c>
       <c r="D30">
-        <v>0.001173965574321076</v>
+        <v>0.001645562373542862</v>
       </c>
       <c r="E30">
         <v>0.01355315697946691</v>
       </c>
       <c r="F30">
-        <v>0.002034835588647792</v>
+        <v>0.003342457548259067</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1000,13 +1000,13 @@
         <v>0.04402483822502326</v>
       </c>
       <c r="D31">
-        <v>0.001212686547634981</v>
+        <v>0.001662885456364279</v>
       </c>
       <c r="E31">
         <v>0.01425200895139514</v>
       </c>
       <c r="F31">
-        <v>0.002192103007144468</v>
+        <v>0.003554012482759693</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1020,13 +1020,13 @@
         <v>0.04580445015817358</v>
       </c>
       <c r="D32">
-        <v>0.00125157776826626</v>
+        <v>0.001678537586254865</v>
       </c>
       <c r="E32">
         <v>0.01495086092332337</v>
       </c>
       <c r="F32">
-        <v>0.002354840791735719</v>
+        <v>0.003768153435148493</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1040,13 +1040,13 @@
         <v>0.04758406209132393</v>
       </c>
       <c r="D33">
-        <v>0.00129061775184943</v>
+        <v>0.001692485354341924</v>
       </c>
       <c r="E33">
         <v>0.0156497128952516</v>
       </c>
       <c r="F33">
-        <v>0.002523003447802754</v>
+        <v>0.00398455449254227</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1060,13 +1060,13 @@
         <v>0.04936367402447427</v>
       </c>
       <c r="D34">
-        <v>0.001329789880540066</v>
+        <v>0.001704710285471294</v>
       </c>
       <c r="E34">
         <v>0.01634856486717982</v>
       </c>
       <c r="F34">
-        <v>0.00269655019667703</v>
+        <v>0.004202908083874748</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1080,13 +1080,13 @@
         <v>0.05114328595762462</v>
       </c>
       <c r="D35">
-        <v>0.001369081271709555</v>
+        <v>0.001715205098757368</v>
       </c>
       <c r="E35">
         <v>0.01704741683910806</v>
       </c>
       <c r="F35">
-        <v>0.002875444111564876</v>
+        <v>0.004422922689759432</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1100,13 +1100,13 @@
         <v>0.05292289789077495</v>
       </c>
       <c r="D36">
-        <v>0.00140848195829612</v>
+        <v>0.001723971009093573</v>
       </c>
       <c r="E36">
         <v>0.01774626881103629</v>
       </c>
       <c r="F36">
-        <v>0.0030596514691536</v>
+        <v>0.004644321082536211</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1120,13 +1120,13 @@
         <v>0.05470250982392529</v>
       </c>
       <c r="D37">
-        <v>0.001447984284044434</v>
+        <v>0.001731015744256085</v>
       </c>
       <c r="E37">
         <v>0.01844512078296452</v>
       </c>
       <c r="F37">
-        <v>0.003249141252657469</v>
+        <v>0.004866838940184393</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1140,13 +1140,13 @@
         <v>0.05648212175707563</v>
       </c>
       <c r="D38">
-        <v>0.001487582450324692</v>
+        <v>0.00173635206415255</v>
       </c>
       <c r="E38">
         <v>0.01914397275489275</v>
       </c>
       <c r="F38">
-        <v>0.003443884763671729</v>
+        <v>0.005090223730272982</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1160,13 +1160,13 @@
         <v>0.05826173369022596</v>
       </c>
       <c r="D39">
-        <v>0.001527272172015383</v>
+        <v>0.001739996638925434</v>
       </c>
       <c r="E39">
         <v>0.01984282472682097</v>
       </c>
       <c r="F39">
-        <v>0.003643855313820268</v>
+        <v>0.005314233793212711</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1180,13 +1180,13 @@
         <v>0.0600413456233763</v>
       </c>
       <c r="D40">
-        <v>0.001567050413307075</v>
+        <v>0.001741969187807049</v>
       </c>
       <c r="E40">
         <v>0.02054167669874921</v>
       </c>
       <c r="F40">
-        <v>0.003849027976152104</v>
+        <v>0.005538637575737033</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1200,13 +1200,13 @@
         <v>0.06182095755652664</v>
       </c>
       <c r="D41">
-        <v>0.001606915182783216</v>
+        <v>0.00174229181001052</v>
       </c>
       <c r="E41">
         <v>0.02124052867067744</v>
       </c>
       <c r="F41">
-        <v>0.004059379381541419</v>
+        <v>0.00576321297895854</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1220,13 +1220,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D42">
-        <v>0.001644430127214736</v>
+        <v>0.001740998303699879</v>
       </c>
       <c r="E42">
         <v>0.02189988709636259</v>
       </c>
       <c r="F42">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1240,13 +1240,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D43">
-        <v>0.001641360996549282</v>
+        <v>0.001739137161956372</v>
       </c>
       <c r="E43">
         <v>0.02189988709636259</v>
       </c>
       <c r="F43">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1260,13 +1260,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D44">
-        <v>0.001637858351388118</v>
+        <v>0.001737122200257145</v>
       </c>
       <c r="E44">
         <v>0.02189988709636259</v>
       </c>
       <c r="F44">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1280,13 +1280,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D45">
-        <v>0.001634359746100847</v>
+        <v>0.001735130787834604</v>
       </c>
       <c r="E45">
         <v>0.02189988709636259</v>
       </c>
       <c r="F45">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1300,13 +1300,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D46">
-        <v>0.001630869040628448</v>
+        <v>0.001733165099313345</v>
       </c>
       <c r="E46">
         <v>0.02189988709636259</v>
       </c>
       <c r="F46">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1320,13 +1320,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D47">
-        <v>0.001627386860454491</v>
+        <v>0.001731226580621842</v>
       </c>
       <c r="E47">
         <v>0.02189988709636259</v>
       </c>
       <c r="F47">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1340,13 +1340,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D48">
-        <v>0.001623913750191648</v>
+        <v>0.001729316752009213</v>
       </c>
       <c r="E48">
         <v>0.02189988709636259</v>
       </c>
       <c r="F48">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1360,13 +1360,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D49">
-        <v>0.001620450170592717</v>
+        <v>0.001727437215898863</v>
       </c>
       <c r="E49">
         <v>0.02189988709636259</v>
       </c>
       <c r="F49">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D50">
-        <v>0.001616996463008819</v>
+        <v>0.001725589661050569</v>
       </c>
       <c r="E50">
         <v>0.02189988709636259</v>
       </c>
       <c r="F50">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1400,13 +1400,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D51">
-        <v>0.001613552802885284</v>
+        <v>0.001723775866732372</v>
       </c>
       <c r="E51">
         <v>0.02189988709636259</v>
       </c>
       <c r="F51">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1420,13 +1420,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D52">
-        <v>0.001610119139328258</v>
+        <v>0.001721997706858604</v>
       </c>
       <c r="E52">
         <v>0.02189988709636259</v>
       </c>
       <c r="F52">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1440,13 +1440,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D53">
-        <v>0.001606695116330795</v>
+        <v>0.001720257154010054</v>
       </c>
       <c r="E53">
         <v>0.02189988709636259</v>
       </c>
       <c r="F53">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1460,13 +1460,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D54">
-        <v>0.001603279969800154</v>
+        <v>0.001718556283224599</v>
       </c>
       <c r="E54">
         <v>0.02189988709636259</v>
       </c>
       <c r="F54">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1480,13 +1480,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D55">
-        <v>0.001599872392418161</v>
+        <v>0.001716897275409922</v>
       </c>
       <c r="E55">
         <v>0.02189988709636259</v>
       </c>
       <c r="F55">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1500,13 +1500,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D56">
-        <v>0.001596470355413747</v>
+        <v>0.001715282420182874</v>
       </c>
       <c r="E56">
         <v>0.02189988709636259</v>
       </c>
       <c r="F56">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1520,13 +1520,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D57">
-        <v>0.001593070872122944</v>
+        <v>0.001713714117878269</v>
       </c>
       <c r="E57">
         <v>0.02189988709636259</v>
       </c>
       <c r="F57">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1540,13 +1540,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D58">
-        <v>0.001589669682149182</v>
+        <v>0.001712194880389476</v>
       </c>
       <c r="E58">
         <v>0.02189988709636259</v>
       </c>
       <c r="F58">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1560,13 +1560,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D59">
-        <v>0.001586260826067106</v>
+        <v>0.001710727330397616</v>
       </c>
       <c r="E59">
         <v>0.02189988709636259</v>
       </c>
       <c r="F59">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1580,13 +1580,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D60">
-        <v>0.001582836067432115</v>
+        <v>0.001709314198407353</v>
       </c>
       <c r="E60">
         <v>0.02189988709636259</v>
       </c>
       <c r="F60">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1600,13 +1600,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D61">
-        <v>0.001579384098924639</v>
+        <v>0.001707958316823726</v>
       </c>
       <c r="E61">
         <v>0.02189988709636259</v>
       </c>
       <c r="F61">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1620,13 +1620,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D62">
-        <v>0.001551881604143266</v>
+        <v>0.00170666261006087</v>
       </c>
       <c r="E62">
         <v>0.02189988709636259</v>
       </c>
       <c r="F62">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1640,13 +1640,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D63">
-        <v>0.001527459794810484</v>
+        <v>0.00170543007934816</v>
       </c>
       <c r="E63">
         <v>0.02189988709636259</v>
       </c>
       <c r="F63">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1660,13 +1660,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D64">
-        <v>0.001504831898861178</v>
+        <v>0.001704263780462241</v>
       </c>
       <c r="E64">
         <v>0.02189988709636259</v>
       </c>
       <c r="F64">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1680,13 +1680,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D65">
-        <v>0.001483192473640295</v>
+        <v>0.001703166792022714</v>
       </c>
       <c r="E65">
         <v>0.02189988709636259</v>
       </c>
       <c r="F65">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1700,13 +1700,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D66">
-        <v>0.001462431731425706</v>
+        <v>0.001702142171184506</v>
       </c>
       <c r="E66">
         <v>0.02189988709636259</v>
       </c>
       <c r="F66">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1720,13 +1720,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D67">
-        <v>0.001442484192970071</v>
+        <v>0.001701192892455195</v>
       </c>
       <c r="E67">
         <v>0.02189988709636259</v>
       </c>
       <c r="F67">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1740,13 +1740,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D68">
-        <v>0.001423292151482247</v>
+        <v>0.001700321763835517</v>
       </c>
       <c r="E68">
         <v>0.02189988709636259</v>
       </c>
       <c r="F68">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1760,13 +1760,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D69">
-        <v>0.001404802985312798</v>
+        <v>0.001699531312341948</v>
       </c>
       <c r="E69">
         <v>0.02189988709636259</v>
       </c>
       <c r="F69">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1780,13 +1780,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D70">
-        <v>0.001386968465041448</v>
+        <v>0.001698823627947093</v>
       </c>
       <c r="E70">
         <v>0.02189988709636259</v>
       </c>
       <c r="F70">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1800,13 +1800,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D71">
-        <v>0.001369744246799264</v>
+        <v>0.001670370942140564</v>
       </c>
       <c r="E71">
         <v>0.02189988709636259</v>
       </c>
       <c r="F71">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1820,13 +1820,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D72">
-        <v>0.00135308945136181</v>
+        <v>0.001643579191444813</v>
       </c>
       <c r="E72">
         <v>0.02189988709636259</v>
       </c>
       <c r="F72">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D73">
-        <v>0.001336966304616664</v>
+        <v>0.00161836921907928</v>
       </c>
       <c r="E73">
         <v>0.02189988709636259</v>
       </c>
       <c r="F73">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1860,13 +1860,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D74">
-        <v>0.001321339829360871</v>
+        <v>0.001594217838295722</v>
       </c>
       <c r="E74">
         <v>0.02189988709636259</v>
       </c>
       <c r="F74">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1880,13 +1880,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D75">
-        <v>0.001306177579697346</v>
+        <v>0.00157102823451052</v>
       </c>
       <c r="E75">
         <v>0.02189988709636259</v>
       </c>
       <c r="F75">
-        <v>0.004262571633766798</v>
+        <v>0.005975062616975481</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1900,13 +1900,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D76">
-        <v>0.001291449410859206</v>
+        <v>0.001548729145823301</v>
       </c>
       <c r="E76">
         <v>0.0218998870963626</v>
       </c>
       <c r="F76">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1920,13 +1920,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D77">
-        <v>0.001277127278560003</v>
+        <v>0.001527256807358545</v>
       </c>
       <c r="E77">
         <v>0.0218998870963626</v>
       </c>
       <c r="F77">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1940,13 +1940,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D78">
-        <v>0.00126318506300832</v>
+        <v>0.001506553363313357</v>
       </c>
       <c r="E78">
         <v>0.0218998870963626</v>
       </c>
       <c r="F78">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1960,13 +1960,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D79">
-        <v>0.001249598413581471</v>
+        <v>0.001486566113951195</v>
       </c>
       <c r="E79">
         <v>0.0218998870963626</v>
       </c>
       <c r="F79">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1980,13 +1980,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D80">
-        <v>0.001236344610859222</v>
+        <v>0.001467246899919296</v>
       </c>
       <c r="E80">
         <v>0.0218998870963626</v>
       </c>
       <c r="F80">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2000,13 +2000,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D81">
-        <v>0.001223402443301324</v>
+        <v>0.001448551578555537</v>
       </c>
       <c r="E81">
         <v>0.0218998870963626</v>
       </c>
       <c r="F81">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2020,13 +2020,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D82">
-        <v>0.001210752096334052</v>
+        <v>0.00143043957664683</v>
       </c>
       <c r="E82">
         <v>0.0218998870963626</v>
       </c>
       <c r="F82">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2040,13 +2040,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D83">
-        <v>0.001198375052007949</v>
+        <v>0.001412873501341346</v>
       </c>
       <c r="E83">
         <v>0.0218998870963626</v>
       </c>
       <c r="F83">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2060,13 +2060,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D84">
-        <v>0.001186253997716107</v>
+        <v>0.001395818814041393</v>
       </c>
       <c r="E84">
         <v>0.0218998870963626</v>
       </c>
       <c r="F84">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2080,13 +2080,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D85">
-        <v>0.001174372742731111</v>
+        <v>0.001379243539139381</v>
       </c>
       <c r="E85">
         <v>0.0218998870963626</v>
       </c>
       <c r="F85">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2100,13 +2100,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D86">
-        <v>0.001162716141539114</v>
+        <v>0.001363118015403327</v>
       </c>
       <c r="E86">
         <v>0.0218998870963626</v>
       </c>
       <c r="F86">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2120,13 +2120,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D87">
-        <v>0.001151270023129454</v>
+        <v>0.001347414678428394</v>
       </c>
       <c r="E87">
         <v>0.0218998870963626</v>
       </c>
       <c r="F87">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2140,13 +2140,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D88">
-        <v>0.001140021125544765</v>
+        <v>0.001332107870254679</v>
       </c>
       <c r="E88">
         <v>0.0218998870963626</v>
       </c>
       <c r="F88">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2160,13 +2160,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D89">
-        <v>0.001128957035115267</v>
+        <v>0.001317173672113212</v>
       </c>
       <c r="E89">
         <v>0.0218998870963626</v>
       </c>
       <c r="F89">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2180,13 +2180,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D90">
-        <v>0.001118066129896864</v>
+        <v>0.001302589756899391</v>
       </c>
       <c r="E90">
         <v>0.0218998870963626</v>
       </c>
       <c r="F90">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2200,13 +2200,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D91">
-        <v>0.001107337526909807</v>
+        <v>0.001288335258510794</v>
       </c>
       <c r="E91">
         <v>0.0218998870963626</v>
       </c>
       <c r="F91">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2220,13 +2220,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D92">
-        <v>0.001096761032836487</v>
+        <v>0.001274390655635652</v>
       </c>
       <c r="E92">
         <v>0.0218998870963626</v>
       </c>
       <c r="F92">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2240,13 +2240,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D93">
-        <v>0.0010863270978862</v>
+        <v>0.001260737667954634</v>
       </c>
       <c r="E93">
         <v>0.0218998870963626</v>
       </c>
       <c r="F93">
-        <v>0.004262571633766793</v>
+        <v>0.005975062616975487</v>
       </c>
     </row>
   </sheetData>

--- a/TheEngine/Regen Solver/enginefiles/solverdatageometry.xlsx
+++ b/TheEngine/Regen Solver/enginefiles/solverdatageometry.xlsx
@@ -420,13 +420,13 @@
         <v>0.03112434574304199</v>
       </c>
       <c r="D2">
-        <v>0.005150225991302586</v>
+        <v>0.00917115094507856</v>
       </c>
       <c r="E2">
         <v>0.009185997400259802</v>
       </c>
       <c r="F2">
-        <v>0.004889619209503845</v>
+        <v>0.03589153591546093</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,13 +440,13 @@
         <v>0.03029842497054849</v>
       </c>
       <c r="D3">
-        <v>0.005082084374084406</v>
+        <v>0.009212494683605788</v>
       </c>
       <c r="E3">
         <v>0.008861659071345705</v>
       </c>
       <c r="F3">
-        <v>0.004766072315499016</v>
+        <v>0.03493911219822031</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,13 +460,13 @@
         <v>0.029472504198055</v>
       </c>
       <c r="D4">
-        <v>0.004991567043722514</v>
+        <v>0.009259678873677584</v>
       </c>
       <c r="E4">
         <v>0.00853732074243161</v>
       </c>
       <c r="F4">
-        <v>0.004617598523249564</v>
+        <v>0.03398668848097979</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,13 +480,13 @@
         <v>0.02864658342556152</v>
       </c>
       <c r="D5">
-        <v>0.004878959002764082</v>
+        <v>0.009313459545754989</v>
       </c>
       <c r="E5">
         <v>0.008212982413517519</v>
       </c>
       <c r="F5">
-        <v>0.004445826539184793</v>
+        <v>0.03303426476373949</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,13 +500,13 @@
         <v>0.02782066265306801</v>
       </c>
       <c r="D6">
-        <v>0.004744654626704549</v>
+        <v>0.009374724053389991</v>
       </c>
       <c r="E6">
         <v>0.007888644084603418</v>
       </c>
       <c r="F6">
-        <v>0.004252698601489258</v>
+        <v>0.03208184104649948</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,13 +520,13 @@
         <v>0.02699474188057452</v>
       </c>
       <c r="D7">
-        <v>0.00458935162565802</v>
+        <v>0.009444520421520868</v>
       </c>
       <c r="E7">
         <v>0.007564305755689323</v>
       </c>
       <c r="F7">
-        <v>0.004040437763912341</v>
+        <v>0.0311294173292562</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,13 +540,13 @@
         <v>0.02616882110808103</v>
       </c>
       <c r="D8">
-        <v>0.004414021882111358</v>
+        <v>0.009524094859118258</v>
       </c>
       <c r="E8">
         <v>0.007239967426775229</v>
       </c>
       <c r="F8">
-        <v>0.003811500253523136</v>
+        <v>0.03017699361201519</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,13 +560,13 @@
         <v>0.02534290033558753</v>
       </c>
       <c r="D9">
-        <v>0.004219855930684975</v>
+        <v>0.009614940197224803</v>
       </c>
       <c r="E9">
         <v>0.006915629097861133</v>
       </c>
       <c r="F9">
-        <v>0.003568511051010036</v>
+        <v>0.02922456989477406</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,13 +580,13 @@
         <v>0.02451697956309404</v>
       </c>
       <c r="D10">
-        <v>0.004008172231957837</v>
+        <v>0.009718859129557366</v>
       </c>
       <c r="E10">
         <v>0.006591290768947037</v>
       </c>
       <c r="F10">
-        <v>0.003314179163871476</v>
+        <v>0.02827214617753275</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,13 +600,13 @@
         <v>0.02369105879060053</v>
       </c>
       <c r="D11">
-        <v>0.003780273561572748</v>
+        <v>0.009838047781371567</v>
       </c>
       <c r="E11">
         <v>0.006266952440032936</v>
       </c>
       <c r="F11">
-        <v>0.003051184505410432</v>
+        <v>0.02731972246029121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,13 +620,13 @@
         <v>0.02286513801810705</v>
       </c>
       <c r="D12">
-        <v>0.003537211056516205</v>
+        <v>0.009975207610562803</v>
       </c>
       <c r="E12">
         <v>0.005942614111118845</v>
       </c>
       <c r="F12">
-        <v>0.002782016241311469</v>
+        <v>0.02636729874304935</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,13 +640,13 @@
         <v>0.02203921724561356</v>
       </c>
       <c r="D13">
-        <v>0.003279356182438713</v>
+        <v>0.01013369744326565</v>
       </c>
       <c r="E13">
         <v>0.005618275782204749</v>
       </c>
       <c r="F13">
-        <v>0.00250870838128259</v>
+        <v>0.02541487502580695</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -660,13 +660,13 @@
         <v>0.02121329647312005</v>
       </c>
       <c r="D14">
-        <v>0.003005486380406337</v>
+        <v>0.01031774339178255</v>
       </c>
       <c r="E14">
         <v>0.005293937453290648</v>
       </c>
       <c r="F14">
-        <v>0.002232306255318037</v>
+        <v>0.02446245130856374</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -680,13 +680,13 @@
         <v>0.02038737570062656</v>
       </c>
       <c r="D15">
-        <v>0.002710282523922772</v>
+        <v>0.01053273393150085</v>
       </c>
       <c r="E15">
         <v>0.004969599124376551</v>
       </c>
       <c r="F15">
-        <v>0.001951423350163182</v>
+        <v>0.02351002759131935</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -700,13 +700,13 @@
         <v>0.01956145492813306</v>
       </c>
       <c r="D16">
-        <v>0.002373765043902406</v>
+        <v>0.0107856430883193</v>
       </c>
       <c r="E16">
         <v>0.004645260795462457</v>
       </c>
       <c r="F16">
-        <v>0.001656029482811165</v>
+        <v>0.0225576038740731</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -720,13 +720,13 @@
         <v>0.01911027116091851</v>
       </c>
       <c r="D17">
-        <v>0.001662339609194077</v>
+        <v>0.01093438097618521</v>
       </c>
       <c r="E17">
         <v>0.004468081344399932</v>
       </c>
       <c r="F17">
-        <v>0.001174978530569183</v>
+        <v>0.02203731411379109</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -740,13 +740,13 @@
         <v>0.02088988309406883</v>
       </c>
       <c r="D18">
-        <v>0.001460978596209525</v>
+        <v>0.01033369831965688</v>
       </c>
       <c r="E18">
         <v>0.005166933316328154</v>
       </c>
       <c r="F18">
-        <v>0.001206409092976211</v>
+        <v>0.0240895020101069</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -760,13 +760,13 @@
         <v>0.02266949502721918</v>
       </c>
       <c r="D19">
-        <v>0.001426328783665248</v>
+        <v>0.009896282949998008</v>
       </c>
       <c r="E19">
         <v>0.005865785288256387</v>
       </c>
       <c r="F19">
-        <v>0.001325957687250003</v>
+        <v>0.02614168990641573</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -780,13 +780,13 @@
         <v>0.02444910696036953</v>
       </c>
       <c r="D20">
-        <v>0.001428074571813216</v>
+        <v>0.009566891745763324</v>
       </c>
       <c r="E20">
         <v>0.006564637260184621</v>
       </c>
       <c r="F20">
-        <v>0.001469063650235908</v>
+        <v>0.02819387780272174</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -800,13 +800,13 @@
         <v>0.02622871889351988</v>
       </c>
       <c r="D21">
-        <v>0.001443089656994752</v>
+        <v>0.009312336952601332</v>
       </c>
       <c r="E21">
         <v>0.007263489232112854</v>
       </c>
       <c r="F21">
-        <v>0.001625869071621931</v>
+        <v>0.03024606569902658</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -820,13 +820,13 @@
         <v>0.0280083308266702</v>
       </c>
       <c r="D22">
-        <v>0.001464034184377028</v>
+        <v>0.009111540385655283</v>
       </c>
       <c r="E22">
         <v>0.007962341204041077</v>
       </c>
       <c r="F22">
-        <v>0.001792655008752646</v>
+        <v>0.03229825359533291</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,13 +840,13 @@
         <v>0.02978794275982054</v>
       </c>
       <c r="D23">
-        <v>0.001487680916718522</v>
+        <v>0.008950507490758472</v>
       </c>
       <c r="E23">
         <v>0.008661193175969303</v>
       </c>
       <c r="F23">
-        <v>0.001967479957400649</v>
+        <v>0.03435044149163567</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -860,13 +860,13 @@
         <v>0.03156755469297089</v>
       </c>
       <c r="D24">
-        <v>0.001512337740640048</v>
+        <v>0.008819603877475584</v>
       </c>
       <c r="E24">
         <v>0.009360045147897535</v>
       </c>
       <c r="F24">
-        <v>0.002149114661449114</v>
+        <v>0.03640262938793917</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -880,13 +880,13 @@
         <v>0.03334716662612121</v>
       </c>
       <c r="D25">
-        <v>0.001537022325862672</v>
+        <v>0.008711993762413391</v>
       </c>
       <c r="E25">
         <v>0.01005889711982576</v>
       </c>
       <c r="F25">
-        <v>0.002336675025689555</v>
+        <v>0.03845481728424291</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -900,13 +900,13 @@
         <v>0.03512677855927156</v>
       </c>
       <c r="D26">
-        <v>0.001561125936190083</v>
+        <v>0.008622701809413828</v>
       </c>
       <c r="E26">
         <v>0.01075774909175399</v>
       </c>
       <c r="F26">
-        <v>0.002529467770282997</v>
+        <v>0.04050700518054676</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -920,13 +920,13 @@
         <v>0.03690639049242189</v>
       </c>
       <c r="D27">
-        <v>0.001584254547500019</v>
+        <v>0.008548026903057494</v>
       </c>
       <c r="E27">
         <v>0.01145660106368222</v>
       </c>
       <c r="F27">
-        <v>0.002726916176392131</v>
+        <v>0.0425591930768506</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -940,13 +940,13 @@
         <v>0.03868600242557224</v>
       </c>
       <c r="D28">
-        <v>0.001606145761131376</v>
+        <v>0.008485163332943592</v>
       </c>
       <c r="E28">
         <v>0.01215545303561045</v>
       </c>
       <c r="F28">
-        <v>0.002928520627467398</v>
+        <v>0.04461138097331756</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -960,13 +960,13 @@
         <v>0.04046561435872258</v>
       </c>
       <c r="D29">
-        <v>0.001626621969903978</v>
+        <v>0.00843194880271303</v>
       </c>
       <c r="E29">
         <v>0.01285430500753868</v>
       </c>
       <c r="F29">
-        <v>0.003133835948783437</v>
+        <v>0.0466635688690434</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -980,13 +980,13 @@
         <v>0.04224522629187291</v>
       </c>
       <c r="D30">
-        <v>0.001645562373542862</v>
+        <v>0.008386692506161249</v>
       </c>
       <c r="E30">
         <v>0.01355315697946691</v>
       </c>
       <c r="F30">
-        <v>0.003342457548259067</v>
+        <v>0.04871575676555696</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1000,13 +1000,13 @@
         <v>0.04402483822502326</v>
       </c>
       <c r="D31">
-        <v>0.001662885456364279</v>
+        <v>0.008348055184171754</v>
       </c>
       <c r="E31">
         <v>0.01425200895139514</v>
       </c>
       <c r="F31">
-        <v>0.003554012482759693</v>
+        <v>0.05076794466196504</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1020,13 +1020,13 @@
         <v>0.04580445015817358</v>
       </c>
       <c r="D32">
-        <v>0.001678537586254865</v>
+        <v>0.008314963773833001</v>
       </c>
       <c r="E32">
         <v>0.01495086092332337</v>
       </c>
       <c r="F32">
-        <v>0.003768153435148493</v>
+        <v>0.05282013255832055</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1040,13 +1040,13 @@
         <v>0.04758406209132393</v>
       </c>
       <c r="D33">
-        <v>0.001692485354341924</v>
+        <v>0.008286549589839074</v>
       </c>
       <c r="E33">
         <v>0.0156497128952516</v>
       </c>
       <c r="F33">
-        <v>0.00398455449254227</v>
+        <v>0.05487232045464992</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1060,13 +1060,13 @@
         <v>0.04936367402447427</v>
       </c>
       <c r="D34">
-        <v>0.001704710285471294</v>
+        <v>0.00826210283151565</v>
       </c>
       <c r="E34">
         <v>0.01634856486717982</v>
       </c>
       <c r="F34">
-        <v>0.004202908083874748</v>
+        <v>0.05692450835096625</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1080,13 +1080,13 @@
         <v>0.05114328595762462</v>
       </c>
       <c r="D35">
-        <v>0.001715205098757368</v>
+        <v>0.008241038620117019</v>
       </c>
       <c r="E35">
         <v>0.01704741683910806</v>
       </c>
       <c r="F35">
-        <v>0.004422922689759432</v>
+        <v>0.05897669624727621</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1100,13 +1100,13 @@
         <v>0.05292289789077495</v>
       </c>
       <c r="D36">
-        <v>0.001723971009093573</v>
+        <v>0.008222871310768286</v>
       </c>
       <c r="E36">
         <v>0.01774626881103629</v>
       </c>
       <c r="F36">
-        <v>0.004644321082536211</v>
+        <v>0.06102888414358298</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1120,13 +1120,13 @@
         <v>0.05470250982392529</v>
       </c>
       <c r="D37">
-        <v>0.001731015744256085</v>
+        <v>0.008207194830381039</v>
       </c>
       <c r="E37">
         <v>0.01844512078296452</v>
       </c>
       <c r="F37">
-        <v>0.004866838940184393</v>
+        <v>0.06308107203988823</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1140,13 +1140,13 @@
         <v>0.05648212175707563</v>
       </c>
       <c r="D38">
-        <v>0.00173635206415255</v>
+        <v>0.008193667463039123</v>
       </c>
       <c r="E38">
         <v>0.01914397275489275</v>
       </c>
       <c r="F38">
-        <v>0.005090223730272982</v>
+        <v>0.06513325993619276</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1160,13 +1160,13 @@
         <v>0.05826173369022596</v>
       </c>
       <c r="D39">
-        <v>0.001739996638925434</v>
+        <v>0.00818199995830337</v>
       </c>
       <c r="E39">
         <v>0.01984282472682097</v>
       </c>
       <c r="F39">
-        <v>0.005314233793212711</v>
+        <v>0.0671854478324969</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1180,13 +1180,13 @@
         <v>0.0600413456233763</v>
       </c>
       <c r="D40">
-        <v>0.001741969187807049</v>
+        <v>0.008171946150474412</v>
       </c>
       <c r="E40">
         <v>0.02054167669874921</v>
       </c>
       <c r="F40">
-        <v>0.005538637575737033</v>
+        <v>0.06923763572880091</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1200,13 +1200,13 @@
         <v>0.06182095755652664</v>
       </c>
       <c r="D41">
-        <v>0.00174229181001052</v>
+        <v>0.008163295495120054</v>
       </c>
       <c r="E41">
         <v>0.02124052867067744</v>
       </c>
       <c r="F41">
-        <v>0.00576321297895854</v>
+        <v>0.07128982362510485</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1220,13 +1220,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D42">
-        <v>0.001740998303699879</v>
+        <v>0.008155492776000755</v>
       </c>
       <c r="E42">
         <v>0.02189988709636259</v>
       </c>
       <c r="F42">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1240,13 +1240,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D43">
-        <v>0.001739137161956372</v>
+        <v>0.008141965422421238</v>
       </c>
       <c r="E43">
         <v>0.02189988709636259</v>
       </c>
       <c r="F43">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1260,13 +1260,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D44">
-        <v>0.001737122200257145</v>
+        <v>0.008128433325332876</v>
       </c>
       <c r="E44">
         <v>0.02189988709636259</v>
       </c>
       <c r="F44">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1280,13 +1280,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D45">
-        <v>0.001735130787834604</v>
+        <v>0.008114896503583357</v>
       </c>
       <c r="E45">
         <v>0.02189988709636259</v>
       </c>
       <c r="F45">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1300,13 +1300,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D46">
-        <v>0.001733165099313345</v>
+        <v>0.008101354975960647</v>
       </c>
       <c r="E46">
         <v>0.02189988709636259</v>
       </c>
       <c r="F46">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1320,13 +1320,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D47">
-        <v>0.001731226580621842</v>
+        <v>0.008087808761181143</v>
       </c>
       <c r="E47">
         <v>0.02189988709636259</v>
       </c>
       <c r="F47">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1340,13 +1340,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D48">
-        <v>0.001729316752009213</v>
+        <v>0.008074257877908763</v>
       </c>
       <c r="E48">
         <v>0.02189988709636259</v>
       </c>
       <c r="F48">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1360,13 +1360,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D49">
-        <v>0.001727437215898863</v>
+        <v>0.008060702344734315</v>
       </c>
       <c r="E49">
         <v>0.02189988709636259</v>
       </c>
       <c r="F49">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D50">
-        <v>0.001725589661050569</v>
+        <v>0.008047142180189615</v>
       </c>
       <c r="E50">
         <v>0.02189988709636259</v>
       </c>
       <c r="F50">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1400,13 +1400,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D51">
-        <v>0.001723775866732372</v>
+        <v>0.008033577402741222</v>
       </c>
       <c r="E51">
         <v>0.02189988709636259</v>
       </c>
       <c r="F51">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1420,13 +1420,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D52">
-        <v>0.001721997706858604</v>
+        <v>0.008020008030795318</v>
       </c>
       <c r="E52">
         <v>0.02189988709636259</v>
       </c>
       <c r="F52">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1440,13 +1440,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D53">
-        <v>0.001720257154010054</v>
+        <v>0.008006434082693564</v>
       </c>
       <c r="E53">
         <v>0.02189988709636259</v>
       </c>
       <c r="F53">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1460,13 +1460,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D54">
-        <v>0.001718556283224599</v>
+        <v>0.007992855576717625</v>
       </c>
       <c r="E54">
         <v>0.02189988709636259</v>
       </c>
       <c r="F54">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1480,13 +1480,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D55">
-        <v>0.001716897275409922</v>
+        <v>0.007979272531083846</v>
       </c>
       <c r="E55">
         <v>0.02189988709636259</v>
       </c>
       <c r="F55">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1500,13 +1500,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D56">
-        <v>0.001715282420182874</v>
+        <v>0.00796568496394966</v>
       </c>
       <c r="E56">
         <v>0.02189988709636259</v>
       </c>
       <c r="F56">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1520,13 +1520,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D57">
-        <v>0.001713714117878269</v>
+        <v>0.007952092893409379</v>
       </c>
       <c r="E57">
         <v>0.02189988709636259</v>
       </c>
       <c r="F57">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1540,13 +1540,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D58">
-        <v>0.001712194880389476</v>
+        <v>0.00793849633749797</v>
       </c>
       <c r="E58">
         <v>0.02189988709636259</v>
       </c>
       <c r="F58">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1560,13 +1560,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D59">
-        <v>0.001710727330397616</v>
+        <v>0.007924895314187184</v>
       </c>
       <c r="E59">
         <v>0.02189988709636259</v>
       </c>
       <c r="F59">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1580,13 +1580,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D60">
-        <v>0.001709314198407353</v>
+        <v>0.007911289841390928</v>
       </c>
       <c r="E60">
         <v>0.02189988709636259</v>
       </c>
       <c r="F60">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1600,13 +1600,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D61">
-        <v>0.001707958316823726</v>
+        <v>0.007897679936958103</v>
       </c>
       <c r="E61">
         <v>0.02189988709636259</v>
       </c>
       <c r="F61">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1620,13 +1620,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D62">
-        <v>0.00170666261006087</v>
+        <v>0.007884065618683033</v>
       </c>
       <c r="E62">
         <v>0.02189988709636259</v>
       </c>
       <c r="F62">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1640,13 +1640,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D63">
-        <v>0.00170543007934816</v>
+        <v>0.007870446904295562</v>
       </c>
       <c r="E63">
         <v>0.02189988709636259</v>
       </c>
       <c r="F63">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1660,13 +1660,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D64">
-        <v>0.001704263780462241</v>
+        <v>0.007856823811470882</v>
       </c>
       <c r="E64">
         <v>0.02189988709636259</v>
       </c>
       <c r="F64">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1680,13 +1680,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D65">
-        <v>0.001703166792022714</v>
+        <v>0.007843196357815368</v>
       </c>
       <c r="E65">
         <v>0.02189988709636259</v>
       </c>
       <c r="F65">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1700,13 +1700,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D66">
-        <v>0.001702142171184506</v>
+        <v>0.007829564560887925</v>
       </c>
       <c r="E66">
         <v>0.02189988709636259</v>
       </c>
       <c r="F66">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1720,13 +1720,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D67">
-        <v>0.001701192892455195</v>
+        <v>0.007815928438181984</v>
       </c>
       <c r="E67">
         <v>0.02189988709636259</v>
       </c>
       <c r="F67">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1740,13 +1740,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D68">
-        <v>0.001700321763835517</v>
+        <v>0.00780228800713228</v>
       </c>
       <c r="E68">
         <v>0.02189988709636259</v>
       </c>
       <c r="F68">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1760,13 +1760,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D69">
-        <v>0.001699531312341948</v>
+        <v>0.007788643285115934</v>
       </c>
       <c r="E69">
         <v>0.02189988709636259</v>
       </c>
       <c r="F69">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1780,13 +1780,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D70">
-        <v>0.001698823627947093</v>
+        <v>0.007774994289453934</v>
       </c>
       <c r="E70">
         <v>0.02189988709636259</v>
       </c>
       <c r="F70">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1800,13 +1800,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D71">
-        <v>0.001670370942140564</v>
+        <v>0.007761341037405733</v>
       </c>
       <c r="E71">
         <v>0.02189988709636259</v>
       </c>
       <c r="F71">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1820,13 +1820,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D72">
-        <v>0.001643579191444813</v>
+        <v>0.007747683546175516</v>
       </c>
       <c r="E72">
         <v>0.02189988709636259</v>
       </c>
       <c r="F72">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D73">
-        <v>0.00161836921907928</v>
+        <v>0.00773402183290939</v>
       </c>
       <c r="E73">
         <v>0.02189988709636259</v>
       </c>
       <c r="F73">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1860,13 +1860,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D74">
-        <v>0.001594217838295722</v>
+        <v>0.007720355914696255</v>
       </c>
       <c r="E74">
         <v>0.02189988709636259</v>
       </c>
       <c r="F74">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1880,13 +1880,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D75">
-        <v>0.00157102823451052</v>
+        <v>0.007706685808569536</v>
       </c>
       <c r="E75">
         <v>0.02189988709636259</v>
       </c>
       <c r="F75">
-        <v>0.005975062616975481</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1900,13 +1900,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D76">
-        <v>0.001548729145823301</v>
+        <v>0.007693011531502012</v>
       </c>
       <c r="E76">
         <v>0.0218998870963626</v>
       </c>
       <c r="F76">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1920,13 +1920,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D77">
-        <v>0.001527256807358545</v>
+        <v>0.00767933310041467</v>
       </c>
       <c r="E77">
         <v>0.0218998870963626</v>
       </c>
       <c r="F77">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1940,13 +1940,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D78">
-        <v>0.001506553363313357</v>
+        <v>0.007665650532169662</v>
       </c>
       <c r="E78">
         <v>0.0218998870963626</v>
       </c>
       <c r="F78">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1960,13 +1960,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D79">
-        <v>0.001486566113951195</v>
+        <v>0.007651963843572713</v>
       </c>
       <c r="E79">
         <v>0.0218998870963626</v>
       </c>
       <c r="F79">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1980,13 +1980,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D80">
-        <v>0.001467246899919296</v>
+        <v>0.007638273051374611</v>
       </c>
       <c r="E80">
         <v>0.0218998870963626</v>
       </c>
       <c r="F80">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2000,13 +2000,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D81">
-        <v>0.001448551578555537</v>
+        <v>0.007624578172272366</v>
       </c>
       <c r="E81">
         <v>0.0218998870963626</v>
       </c>
       <c r="F81">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2020,13 +2020,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D82">
-        <v>0.00143043957664683</v>
+        <v>0.007610879222903535</v>
       </c>
       <c r="E82">
         <v>0.0218998870963626</v>
       </c>
       <c r="F82">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2040,13 +2040,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D83">
-        <v>0.001412873501341346</v>
+        <v>0.007597176219854325</v>
       </c>
       <c r="E83">
         <v>0.0218998870963626</v>
       </c>
       <c r="F83">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2060,13 +2060,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D84">
-        <v>0.001395818814041393</v>
+        <v>0.007583469179655525</v>
       </c>
       <c r="E84">
         <v>0.0218998870963626</v>
       </c>
       <c r="F84">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2080,13 +2080,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D85">
-        <v>0.001379243539139381</v>
+        <v>0.007569758118782477</v>
       </c>
       <c r="E85">
         <v>0.0218998870963626</v>
       </c>
       <c r="F85">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2100,13 +2100,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D86">
-        <v>0.001363118015403327</v>
+        <v>0.007556043053654676</v>
       </c>
       <c r="E86">
         <v>0.0218998870963626</v>
       </c>
       <c r="F86">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2120,13 +2120,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D87">
-        <v>0.001347414678428394</v>
+        <v>0.007542324000640541</v>
       </c>
       <c r="E87">
         <v>0.0218998870963626</v>
       </c>
       <c r="F87">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2140,13 +2140,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D88">
-        <v>0.001332107870254679</v>
+        <v>0.00752860097605322</v>
       </c>
       <c r="E88">
         <v>0.0218998870963626</v>
       </c>
       <c r="F88">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2160,13 +2160,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D89">
-        <v>0.001317173672113212</v>
+        <v>0.007514873996151699</v>
       </c>
       <c r="E89">
         <v>0.0218998870963626</v>
       </c>
       <c r="F89">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2180,13 +2180,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D90">
-        <v>0.001302589756899391</v>
+        <v>0.007501143077142215</v>
       </c>
       <c r="E90">
         <v>0.0218998870963626</v>
       </c>
       <c r="F90">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2200,13 +2200,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D91">
-        <v>0.001288335258510794</v>
+        <v>0.007487408235177711</v>
       </c>
       <c r="E91">
         <v>0.0218998870963626</v>
       </c>
       <c r="F91">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2220,13 +2220,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D92">
-        <v>0.001274390655635652</v>
+        <v>0.007473669486356609</v>
       </c>
       <c r="E92">
         <v>0.0218998870963626</v>
       </c>
       <c r="F92">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2240,13 +2240,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D93">
-        <v>0.001260737667954634</v>
+        <v>0.007459926846727669</v>
       </c>
       <c r="E93">
         <v>0.0218998870963626</v>
       </c>
       <c r="F93">
-        <v>0.005975062616975487</v>
+        <v>0.07322603820969507</v>
       </c>
     </row>
   </sheetData>

--- a/TheEngine/Regen Solver/enginefiles/solverdatageometry.xlsx
+++ b/TheEngine/Regen Solver/enginefiles/solverdatageometry.xlsx
@@ -420,13 +420,13 @@
         <v>0.03112434574304199</v>
       </c>
       <c r="D2">
-        <v>0.00917115094507856</v>
+        <v>0.002624692673670607</v>
       </c>
       <c r="E2">
-        <v>0.009185997400259802</v>
+        <v>0.0136859974002598</v>
       </c>
       <c r="F2">
-        <v>0.03589153591546093</v>
+        <v>0.00331116810549084</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,13 +440,13 @@
         <v>0.03029842497054849</v>
       </c>
       <c r="D3">
-        <v>0.009212494683605788</v>
+        <v>0.002577583926276266</v>
       </c>
       <c r="E3">
-        <v>0.008861659071345705</v>
+        <v>0.01336165907134571</v>
       </c>
       <c r="F3">
-        <v>0.03493911219822031</v>
+        <v>0.003291992132247409</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,13 +460,13 @@
         <v>0.029472504198055</v>
       </c>
       <c r="D4">
-        <v>0.009259678873677584</v>
+        <v>0.002518863296137357</v>
       </c>
       <c r="E4">
-        <v>0.00853732074243161</v>
+        <v>0.01303732074243161</v>
       </c>
       <c r="F4">
-        <v>0.03398668848097979</v>
+        <v>0.003250339796601124</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -480,13 +480,13 @@
         <v>0.02864658342556152</v>
       </c>
       <c r="D5">
-        <v>0.009313459545754989</v>
+        <v>0.002448904716257735</v>
       </c>
       <c r="E5">
-        <v>0.008212982413517519</v>
+        <v>0.01271298241351752</v>
       </c>
       <c r="F5">
-        <v>0.03303426476373949</v>
+        <v>0.003186812348913251</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -500,13 +500,13 @@
         <v>0.02782066265306801</v>
       </c>
       <c r="D6">
-        <v>0.009374724053389991</v>
+        <v>0.002367917650844442</v>
       </c>
       <c r="E6">
-        <v>0.007888644084603418</v>
+        <v>0.01238864408460342</v>
       </c>
       <c r="F6">
-        <v>0.03208184104649948</v>
+        <v>0.003102277347292874</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -520,13 +520,13 @@
         <v>0.02699474188057452</v>
       </c>
       <c r="D7">
-        <v>0.009444520421520868</v>
+        <v>0.002276266609389782</v>
       </c>
       <c r="E7">
-        <v>0.007564305755689323</v>
+        <v>0.01206430575568932</v>
       </c>
       <c r="F7">
-        <v>0.0311294173292562</v>
+        <v>0.00299786410517</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -540,13 +540,13 @@
         <v>0.02616882110808103</v>
       </c>
       <c r="D8">
-        <v>0.009524094859118258</v>
+        <v>0.002174465449434857</v>
       </c>
       <c r="E8">
-        <v>0.007239967426775229</v>
+        <v>0.01173996742677523</v>
       </c>
       <c r="F8">
-        <v>0.03017699361201519</v>
+        <v>0.002874947708711645</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -560,13 +560,13 @@
         <v>0.02534290033558753</v>
       </c>
       <c r="D9">
-        <v>0.009614940197224803</v>
+        <v>0.002063159046447929</v>
       </c>
       <c r="E9">
-        <v>0.006915629097861133</v>
+        <v>0.01141562909786113</v>
       </c>
       <c r="F9">
-        <v>0.02922456989477406</v>
+        <v>0.002735118715470751</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -580,13 +580,13 @@
         <v>0.02451697956309404</v>
       </c>
       <c r="D10">
-        <v>0.009718859129557366</v>
+        <v>0.001943089455345807</v>
       </c>
       <c r="E10">
-        <v>0.006591290768947037</v>
+        <v>0.01109129076894704</v>
       </c>
       <c r="F10">
-        <v>0.02827214617753275</v>
+        <v>0.002580134075438619</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -600,13 +600,13 @@
         <v>0.02369105879060053</v>
       </c>
       <c r="D11">
-        <v>0.009838047781371567</v>
+        <v>0.001815039027810379</v>
       </c>
       <c r="E11">
-        <v>0.006266952440032936</v>
+        <v>0.01076695244003294</v>
       </c>
       <c r="F11">
-        <v>0.02731972246029121</v>
+        <v>0.002411840934956735</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -620,13 +620,13 @@
         <v>0.02286513801810705</v>
       </c>
       <c r="D12">
-        <v>0.009975207610562803</v>
+        <v>0.001679734418048687</v>
       </c>
       <c r="E12">
-        <v>0.005942614111118845</v>
+        <v>0.01044261411111884</v>
       </c>
       <c r="F12">
-        <v>0.02636729874304935</v>
+        <v>0.002232054929440348</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -640,13 +640,13 @@
         <v>0.02203921724561356</v>
       </c>
       <c r="D13">
-        <v>0.01013369744326565</v>
+        <v>0.001537671734644897</v>
       </c>
       <c r="E13">
-        <v>0.005618275782204749</v>
+        <v>0.01011827578220475</v>
       </c>
       <c r="F13">
-        <v>0.02541487502580695</v>
+        <v>0.002042346088922695</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -660,13 +660,13 @@
         <v>0.02121329647312005</v>
       </c>
       <c r="D14">
-        <v>0.01031774339178255</v>
+        <v>0.001388746472384503</v>
       </c>
       <c r="E14">
-        <v>0.005293937453290648</v>
+        <v>0.009793937453290647</v>
       </c>
       <c r="F14">
-        <v>0.02446245130856374</v>
+        <v>0.001843591624989353</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -680,13 +680,13 @@
         <v>0.02038737570062656</v>
       </c>
       <c r="D15">
-        <v>0.01053273393150085</v>
+        <v>0.001231253177568509</v>
       </c>
       <c r="E15">
-        <v>0.004969599124376551</v>
+        <v>0.009469599124376551</v>
       </c>
       <c r="F15">
-        <v>0.02351002759131935</v>
+        <v>0.001634757729312856</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -700,13 +700,13 @@
         <v>0.01956145492813306</v>
       </c>
       <c r="D16">
-        <v>0.0107856430883193</v>
+        <v>0.001057697019504345</v>
       </c>
       <c r="E16">
-        <v>0.004645260795462457</v>
+        <v>0.009145260795462457</v>
       </c>
       <c r="F16">
-        <v>0.0225576038740731</v>
+        <v>0.00140768272547635</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -720,13 +720,13 @@
         <v>0.01911027116091851</v>
       </c>
       <c r="D17">
-        <v>0.01093438097618521</v>
+        <v>0.0007464404318504373</v>
       </c>
       <c r="E17">
-        <v>0.004468081344399932</v>
+        <v>0.008968081344399931</v>
       </c>
       <c r="F17">
-        <v>0.02203731411379109</v>
+        <v>0.00101684124860447</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -740,13 +740,13 @@
         <v>0.02088988309406883</v>
       </c>
       <c r="D18">
-        <v>0.01033369831965688</v>
+        <v>0.0006874667975817705</v>
       </c>
       <c r="E18">
-        <v>0.005166933316328154</v>
+        <v>0.009666933316328154</v>
       </c>
       <c r="F18">
-        <v>0.0240895020101069</v>
+        <v>0.001027937691604744</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -760,13 +760,13 @@
         <v>0.02266949502721918</v>
       </c>
       <c r="D19">
-        <v>0.009896282949998008</v>
+        <v>0.0006999621167678775</v>
       </c>
       <c r="E19">
-        <v>0.005865785288256387</v>
+        <v>0.01036578528825639</v>
       </c>
       <c r="F19">
-        <v>0.02614168990641573</v>
+        <v>0.001108807466491015</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -780,13 +780,13 @@
         <v>0.02444910696036953</v>
       </c>
       <c r="D20">
-        <v>0.009566891745763324</v>
+        <v>0.0007302041192930489</v>
       </c>
       <c r="E20">
-        <v>0.006564637260184621</v>
+        <v>0.01106463726018462</v>
       </c>
       <c r="F20">
-        <v>0.02819387780272174</v>
+        <v>0.001204448674373761</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -800,13 +800,13 @@
         <v>0.02622871889351988</v>
       </c>
       <c r="D21">
-        <v>0.009312336952601332</v>
+        <v>0.0007655991304903685</v>
       </c>
       <c r="E21">
-        <v>0.007263489232112854</v>
+        <v>0.01176348923211285</v>
       </c>
       <c r="F21">
-        <v>0.03024606569902658</v>
+        <v>0.001306059918255152</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -820,13 +820,13 @@
         <v>0.0280083308266702</v>
       </c>
       <c r="D22">
-        <v>0.009111540385655283</v>
+        <v>0.0008020694814652737</v>
       </c>
       <c r="E22">
-        <v>0.007962341204041077</v>
+        <v>0.01246234120404108</v>
       </c>
       <c r="F22">
-        <v>0.03229825359533291</v>
+        <v>0.001410126417237198</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -840,13 +840,13 @@
         <v>0.02978794275982054</v>
       </c>
       <c r="D23">
-        <v>0.008950507490758472</v>
+        <v>0.0008381648817091642</v>
       </c>
       <c r="E23">
-        <v>0.008661193175969303</v>
+        <v>0.0131611931759693</v>
       </c>
       <c r="F23">
-        <v>0.03435044149163567</v>
+        <v>0.00151469725193685</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -860,13 +860,13 @@
         <v>0.03156755469297089</v>
       </c>
       <c r="D24">
-        <v>0.008819603877475584</v>
+        <v>0.0008733075968190019</v>
       </c>
       <c r="E24">
-        <v>0.009360045147897535</v>
+        <v>0.01386004514789754</v>
       </c>
       <c r="F24">
-        <v>0.03640262938793917</v>
+        <v>0.001618467989370821</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -880,13 +880,13 @@
         <v>0.03334716662612121</v>
       </c>
       <c r="D25">
-        <v>0.008711993762413391</v>
+        <v>0.0009072365879876124</v>
       </c>
       <c r="E25">
-        <v>0.01005889711982576</v>
+        <v>0.01455889711982576</v>
       </c>
       <c r="F25">
-        <v>0.03845481728424291</v>
+        <v>0.001720461451446275</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -900,13 +900,13 @@
         <v>0.03512677855927156</v>
       </c>
       <c r="D26">
-        <v>0.008622701809413828</v>
+        <v>0.0009398242080659535</v>
       </c>
       <c r="E26">
-        <v>0.01075774909175399</v>
+        <v>0.01525774909175399</v>
       </c>
       <c r="F26">
-        <v>0.04050700518054676</v>
+        <v>0.001819891834415771</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -920,13 +920,13 @@
         <v>0.03690639049242189</v>
       </c>
       <c r="D27">
-        <v>0.008548026903057494</v>
+        <v>0.000971007860720366</v>
       </c>
       <c r="E27">
-        <v>0.01145660106368222</v>
+        <v>0.01595660106368222</v>
       </c>
       <c r="F27">
-        <v>0.0425591930768506</v>
+        <v>0.001916098263537055</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -940,13 +940,13 @@
         <v>0.03868600242557224</v>
       </c>
       <c r="D28">
-        <v>0.008485163332943592</v>
+        <v>0.0010007600023456</v>
       </c>
       <c r="E28">
-        <v>0.01215545303561045</v>
+        <v>0.01665545303561045</v>
       </c>
       <c r="F28">
-        <v>0.04461138097331756</v>
+        <v>0.002008508711650859</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -960,13 +960,13 @@
         <v>0.04046561435872258</v>
       </c>
       <c r="D29">
-        <v>0.00843194880271303</v>
+        <v>0.00102907297606917</v>
       </c>
       <c r="E29">
-        <v>0.01285430500753868</v>
+        <v>0.01735430500753868</v>
       </c>
       <c r="F29">
-        <v>0.0466635688690434</v>
+        <v>0.002096618688934418</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -980,13 +980,13 @@
         <v>0.04224522629187291</v>
       </c>
       <c r="D30">
-        <v>0.008386692506161249</v>
+        <v>0.001055950466327007</v>
       </c>
       <c r="E30">
-        <v>0.01355315697946691</v>
+        <v>0.01805315697946691</v>
       </c>
       <c r="F30">
-        <v>0.04871575676555696</v>
+        <v>0.002179977743425578</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1000,13 +1000,13 @@
         <v>0.04402483822502326</v>
       </c>
       <c r="D31">
-        <v>0.008348055184171754</v>
+        <v>0.001081402201562971</v>
       </c>
       <c r="E31">
-        <v>0.01425200895139514</v>
+        <v>0.01875200895139514</v>
       </c>
       <c r="F31">
-        <v>0.05076794466196504</v>
+        <v>0.002258180381958392</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1020,13 +1020,13 @@
         <v>0.04580445015817358</v>
       </c>
       <c r="D32">
-        <v>0.008314963773833001</v>
+        <v>0.001105440307457732</v>
       </c>
       <c r="E32">
-        <v>0.01495086092332337</v>
+        <v>0.01945086092332337</v>
       </c>
       <c r="F32">
-        <v>0.05282013255832055</v>
+        <v>0.002330859639355674</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1040,13 +1040,13 @@
         <v>0.04758406209132393</v>
       </c>
       <c r="D33">
-        <v>0.008286549589839074</v>
+        <v>0.001128076447723889</v>
       </c>
       <c r="E33">
-        <v>0.0156497128952516</v>
+        <v>0.0201497128952516</v>
       </c>
       <c r="F33">
-        <v>0.05487232045464992</v>
+        <v>0.002397682313811533</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1060,13 +1060,13 @@
         <v>0.04936367402447427</v>
       </c>
       <c r="D34">
-        <v>0.00826210283151565</v>
+        <v>0.001149319204522551</v>
       </c>
       <c r="E34">
-        <v>0.01634856486717982</v>
+        <v>0.02084856486717982</v>
       </c>
       <c r="F34">
-        <v>0.05692450835096625</v>
+        <v>0.002458345296363846</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1080,13 +1080,13 @@
         <v>0.05114328595762462</v>
       </c>
       <c r="D35">
-        <v>0.008241038620117019</v>
+        <v>0.001169171261048425</v>
       </c>
       <c r="E35">
-        <v>0.01704741683910806</v>
+        <v>0.02154741683910806</v>
       </c>
       <c r="F35">
-        <v>0.05897669624727621</v>
+        <v>0.002512572646750462</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1100,13 +1100,13 @@
         <v>0.05292289789077495</v>
       </c>
       <c r="D36">
-        <v>0.008222871310768286</v>
+        <v>0.001169742930525826</v>
       </c>
       <c r="E36">
-        <v>0.01774626881103629</v>
+        <v>0.02224626881103629</v>
       </c>
       <c r="F36">
-        <v>0.06102888414358298</v>
+        <v>0.002560113196166059</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1120,13 +1120,13 @@
         <v>0.05470250982392529</v>
       </c>
       <c r="D37">
-        <v>0.008207194830381039</v>
+        <v>0.001173508412784308</v>
       </c>
       <c r="E37">
-        <v>0.01844512078296452</v>
+        <v>0.02294512078296452</v>
       </c>
       <c r="F37">
-        <v>0.06308107203988823</v>
+        <v>0.002600738533743323</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1140,13 +1140,13 @@
         <v>0.05648212175707563</v>
       </c>
       <c r="D38">
-        <v>0.008193667463039123</v>
+        <v>0.00117821446567861</v>
       </c>
       <c r="E38">
-        <v>0.01914397275489275</v>
+        <v>0.02364397275489275</v>
       </c>
       <c r="F38">
-        <v>0.06513325993619276</v>
+        <v>0.002634241280534164</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1160,13 +1160,13 @@
         <v>0.05826173369022596</v>
       </c>
       <c r="D39">
-        <v>0.00818199995830337</v>
+        <v>0.001182493365814279</v>
       </c>
       <c r="E39">
-        <v>0.01984282472682097</v>
+        <v>0.02434282472682097</v>
       </c>
       <c r="F39">
-        <v>0.0671854478324969</v>
+        <v>0.002660433584555284</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1180,13 +1180,13 @@
         <v>0.0600413456233763</v>
       </c>
       <c r="D40">
-        <v>0.008171946150474412</v>
+        <v>0.001186212067157379</v>
       </c>
       <c r="E40">
-        <v>0.02054167669874921</v>
+        <v>0.02504167669874921</v>
       </c>
       <c r="F40">
-        <v>0.06923763572880091</v>
+        <v>0.002679145789996905</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1200,13 +1200,13 @@
         <v>0.06182095755652664</v>
       </c>
       <c r="D41">
-        <v>0.008163295495120054</v>
+        <v>0.00118936984966532</v>
       </c>
       <c r="E41">
-        <v>0.02124052867067744</v>
+        <v>0.02574052867067744</v>
       </c>
       <c r="F41">
-        <v>0.07128982362510485</v>
+        <v>0.002690225246282367</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1220,13 +1220,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D42">
-        <v>0.008155492776000755</v>
+        <v>0.00119104383293595</v>
       </c>
       <c r="E42">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F42">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1240,13 +1240,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D43">
-        <v>0.008141965422421238</v>
+        <v>0.001177216256870316</v>
       </c>
       <c r="E43">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F43">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1260,13 +1260,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D44">
-        <v>0.008128433325332876</v>
+        <v>0.001163163493623829</v>
       </c>
       <c r="E44">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F44">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1280,13 +1280,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D45">
-        <v>0.008114896503583357</v>
+        <v>0.001149572647018493</v>
       </c>
       <c r="E45">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F45">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1300,13 +1300,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D46">
-        <v>0.008101354975960647</v>
+        <v>0.001136457126846259</v>
       </c>
       <c r="E46">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F46">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1320,13 +1320,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D47">
-        <v>0.008087808761181143</v>
+        <v>0.001123787103455194</v>
       </c>
       <c r="E47">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F47">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1340,13 +1340,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D48">
-        <v>0.008074257877908763</v>
+        <v>0.001111531988338945</v>
       </c>
       <c r="E48">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F48">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1360,13 +1360,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D49">
-        <v>0.008060702344734315</v>
+        <v>0.001099663163876795</v>
       </c>
       <c r="E49">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F49">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D50">
-        <v>0.008047142180189615</v>
+        <v>0.001088154014103238</v>
       </c>
       <c r="E50">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F50">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1400,13 +1400,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D51">
-        <v>0.008033577402741222</v>
+        <v>0.001076979785465975</v>
       </c>
       <c r="E51">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F51">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1420,13 +1420,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D52">
-        <v>0.008020008030795318</v>
+        <v>0.001066117450168748</v>
       </c>
       <c r="E52">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F52">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1440,13 +1440,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D53">
-        <v>0.008006434082693564</v>
+        <v>0.001055545581804663</v>
       </c>
       <c r="E53">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F53">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1460,13 +1460,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D54">
-        <v>0.007992855576717625</v>
+        <v>0.001045244242011456</v>
       </c>
       <c r="E54">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F54">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1480,13 +1480,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D55">
-        <v>0.007979272531083846</v>
+        <v>0.001035194876512218</v>
       </c>
       <c r="E55">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F55">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1500,13 +1500,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D56">
-        <v>0.00796568496394966</v>
+        <v>0.001025380219210945</v>
       </c>
       <c r="E56">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F56">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1520,13 +1520,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D57">
-        <v>0.007952092893409379</v>
+        <v>0.001015784203295974</v>
       </c>
       <c r="E57">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F57">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1540,13 +1540,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D58">
-        <v>0.00793849633749797</v>
+        <v>0.001006391878528441</v>
       </c>
       <c r="E58">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F58">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1560,13 +1560,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D59">
-        <v>0.007924895314187184</v>
+        <v>0.0009971893340658122</v>
       </c>
       <c r="E59">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F59">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1580,13 +1580,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D60">
-        <v>0.007911289841390928</v>
+        <v>0.000988163626302339</v>
       </c>
       <c r="E60">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F60">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1600,13 +1600,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D61">
-        <v>0.007897679936958103</v>
+        <v>0.0009793027113074856</v>
       </c>
       <c r="E61">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F61">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1620,13 +1620,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D62">
-        <v>0.007884065618683033</v>
+        <v>0.0009705953815171127</v>
       </c>
       <c r="E62">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F62">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1640,13 +1640,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D63">
-        <v>0.007870446904295562</v>
+        <v>0.0009620312063862522</v>
       </c>
       <c r="E63">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F63">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1660,13 +1660,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D64">
-        <v>0.007856823811470882</v>
+        <v>0.0009536004767513149</v>
       </c>
       <c r="E64">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F64">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1680,13 +1680,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D65">
-        <v>0.007843196357815368</v>
+        <v>0.0009452941526773795</v>
       </c>
       <c r="E65">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F65">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1700,13 +1700,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D66">
-        <v>0.007829564560887925</v>
+        <v>0.0009371038145856078</v>
       </c>
       <c r="E66">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F66">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1720,13 +1720,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D67">
-        <v>0.007815928438181984</v>
+        <v>0.0009290216174692405</v>
       </c>
       <c r="E67">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F67">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1740,13 +1740,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D68">
-        <v>0.00780228800713228</v>
+        <v>0.0009210402480156438</v>
       </c>
       <c r="E68">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F68">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1760,13 +1760,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D69">
-        <v>0.007788643285115934</v>
+        <v>0.0009131528844578625</v>
       </c>
       <c r="E69">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F69">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1780,13 +1780,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D70">
-        <v>0.007774994289453934</v>
+        <v>0.0009053531589829166</v>
       </c>
       <c r="E70">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F70">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1800,13 +1800,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D71">
-        <v>0.007761341037405733</v>
+        <v>0.0008976351225262859</v>
       </c>
       <c r="E71">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F71">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1820,13 +1820,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D72">
-        <v>0.007747683546175516</v>
+        <v>0.0008899932117829944</v>
       </c>
       <c r="E72">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F72">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D73">
-        <v>0.00773402183290939</v>
+        <v>0.0008824222182655891</v>
       </c>
       <c r="E73">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F73">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1860,13 +1860,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D74">
-        <v>0.007720355914696255</v>
+        <v>0.0008749172592380226</v>
       </c>
       <c r="E74">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F74">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1880,13 +1880,13 @@
         <v>0.06349999999999997</v>
       </c>
       <c r="D75">
-        <v>0.007706685808569536</v>
+        <v>0.0008674737503518527</v>
       </c>
       <c r="E75">
-        <v>0.02189988709636259</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F75">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1900,13 +1900,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D76">
-        <v>0.007693011531502012</v>
+        <v>0.0008600873798068189</v>
       </c>
       <c r="E76">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F76">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113457</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1920,13 +1920,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D77">
-        <v>0.00767933310041467</v>
+        <v>0.0008527540838512448</v>
       </c>
       <c r="E77">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F77">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113457</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1940,13 +1940,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D78">
-        <v>0.007665650532169662</v>
+        <v>0.0008454700234280107</v>
       </c>
       <c r="E78">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F78">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113457</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1960,13 +1960,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D79">
-        <v>0.007651963843572713</v>
+        <v>0.0008382315617580172</v>
       </c>
       <c r="E79">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F79">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113457</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1980,13 +1980,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D80">
-        <v>0.007638273051374611</v>
+        <v>0.0008310352426336029</v>
       </c>
       <c r="E80">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F80">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113457</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2000,13 +2000,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D81">
-        <v>0.007624578172272366</v>
+        <v>0.0008238777691673239</v>
       </c>
       <c r="E81">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F81">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2020,13 +2020,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D82">
-        <v>0.007610879222903535</v>
+        <v>0.0008167559827040073</v>
       </c>
       <c r="E82">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F82">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2040,13 +2040,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D83">
-        <v>0.007597176219854325</v>
+        <v>0.000809666841552196</v>
       </c>
       <c r="E83">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F83">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2060,13 +2060,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D84">
-        <v>0.007583469179655525</v>
+        <v>0.0008026073991193066</v>
       </c>
       <c r="E84">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F84">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2080,13 +2080,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D85">
-        <v>0.007569758118782477</v>
+        <v>0.000795574780935026</v>
       </c>
       <c r="E85">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F85">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2100,13 +2100,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D86">
-        <v>0.007556043053654676</v>
+        <v>0.0007885661599076006</v>
       </c>
       <c r="E86">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F86">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2120,13 +2120,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D87">
-        <v>0.007542324000640541</v>
+        <v>0.0007815787289599653</v>
       </c>
       <c r="E87">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F87">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2140,13 +2140,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D88">
-        <v>0.00752860097605322</v>
+        <v>0.0007746096699097737</v>
       </c>
       <c r="E88">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F88">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2160,13 +2160,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D89">
-        <v>0.007514873996151699</v>
+        <v>0.0007676561170471877</v>
       </c>
       <c r="E89">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F89">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2180,13 +2180,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D90">
-        <v>0.007501143077142215</v>
+        <v>0.0007607151132596978</v>
       </c>
       <c r="E90">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F90">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2200,13 +2200,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D91">
-        <v>0.007487408235177711</v>
+        <v>0.0007537835556459435</v>
       </c>
       <c r="E91">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F91">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2220,13 +2220,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D92">
-        <v>0.007473669486356609</v>
+        <v>0.0007468581261704152</v>
       </c>
       <c r="E92">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F92">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2240,13 +2240,13 @@
         <v>0.06349999999999999</v>
       </c>
       <c r="D93">
-        <v>0.007459926846727669</v>
+        <v>0.0007399352007310186</v>
       </c>
       <c r="E93">
-        <v>0.0218998870963626</v>
+        <v>0.0263998870963626</v>
       </c>
       <c r="F93">
-        <v>0.07322603820969507</v>
+        <v>0.002693557475113463</v>
       </c>
     </row>
   </sheetData>
